--- a/MEDIA/_1101  _001_會計科目餘額明細.xlsx
+++ b/MEDIA/_1101  _001_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_1101  _001_2020-10-15~2020-10-15)</t>
+          <t>森邦(股)會計科目餘額明細(_1101  _001_2020-11-13~2020-11-13)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>919261</v>
+        <v>21597</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201113</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -442,21 +442,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>沖10/14總收現金                    </t>
+          <t>沖11/13收現                      </t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-919261</v>
+        <v>-1065509</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-1043912</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>110107</t>
+          <t>111385</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201113</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -478,38 +478,38 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>其他                                      </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付11/13外務油資                   </t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>612</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="G5" t="n">
-        <v>612</v>
+        <v>-1044812</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>110083</t>
+          <t>111385</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201113</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -519,38 +519,38 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>楠梓監理                                    </t>
+          <t>頭城新興                                    </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>Sales Order20047137           </t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18000</v>
+        <v>3535</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>18612</v>
+        <v>-1041277</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>110094</t>
+          <t>111373</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1000711</t>
+          <t>1000333</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201113</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>三重中正北                                   </t>
+          <t>彰化彰美                                    </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -569,29 +569,29 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>13300</v>
+        <v>9600</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>31912</v>
+        <v>-1031677</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>110094</t>
+          <t>111361</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1000722</t>
+          <t>1000164</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201113</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>板橋大同                                    </t>
+          <t>台中五權五                                   </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -610,29 +610,29 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>23477</v>
+        <v>10036</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>55389</v>
+        <v>-1021641</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>110094</t>
+          <t>111366</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1000729</t>
+          <t>1000494</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201113</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>平鎮上海                                    </t>
+          <t>台中忠明                                    </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -651,29 +651,29 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>15483</v>
+        <v>11000</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>70872</v>
+        <v>-1010641</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>110094</t>
+          <t>111366</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1000769</t>
+          <t>1000112</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201113</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>板橋新民	                                   </t>
+          <t>鹿港彰濱	                                   </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -692,29 +692,29 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>14250</v>
+        <v>14903</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>85122</v>
+        <v>-995738</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>110094</t>
+          <t>111380</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1000930</t>
+          <t>1000904</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201113</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中壢三光	                                   </t>
+          <t>沙鹿中興                                    </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -733,29 +733,29 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>11929</v>
+        <v>24160</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>97051</v>
+        <v>-971578</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>110094</t>
+          <t>111380</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1000934</t>
+          <t>1000050</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201113</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>楊梅環東                                    </t>
+          <t>和美和線                                    </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -774,29 +774,29 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>32100</v>
+        <v>17000</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>129151</v>
+        <v>-954578</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>110094</t>
+          <t>111380</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1000003</t>
+          <t>1000463</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201113</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>觀音觀音                                    </t>
+          <t>伸港中興	                                   </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -815,29 +815,29 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>16725</v>
+        <v>20619</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>145876</v>
+        <v>-933959</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>110094</t>
+          <t>111380</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1000021</t>
+          <t>1000929</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201113</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>楠梓藍昌                                    </t>
+          <t>秀水中山                                    </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -856,29 +856,29 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>24000</v>
+        <v>8649</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>169876</v>
+        <v>-925310</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>110094</t>
+          <t>111380</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1000085</t>
+          <t>1000347</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201113</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>岡山校前                                    </t>
+          <t>鹿港三民                                    </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -897,29 +897,29 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>32385</v>
+        <v>11524</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>202261</v>
+        <v>-913786</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>110094</t>
+          <t>111380</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1000107</t>
+          <t>1000698</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201113</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>三重大仁                                    </t>
+          <t>台南崇德                                    </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -938,29 +938,29 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2717</v>
+        <v>14000</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>204978</v>
+        <v>-899786</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>110094</t>
+          <t>111383</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1000258</t>
+          <t>1000297</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201113</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>平鎮文化                                    </t>
+          <t>台南崇明                                    </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -979,29 +979,29 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5228</v>
+        <v>20000</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>210206</v>
+        <v>-879786</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>110094</t>
+          <t>111383</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1000293</t>
+          <t>1000482</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201113</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>橋頭國中                                    </t>
+          <t>永康大橋                                    </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1020,29 +1020,29 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>43058</v>
+        <v>20809</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>253264</v>
+        <v>-858977</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>110094</t>
+          <t>111383</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1000301</t>
+          <t>1000193</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201113</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>觀音中正                                    </t>
+          <t>仁德嘉藥                                    </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1061,29 +1061,29 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>13322</v>
+        <v>13502</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>266586</v>
+        <v>-845475</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>110094</t>
+          <t>111383</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1000457</t>
+          <t>1000454</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201113</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>楊梅大成                                    </t>
+          <t>永康永華                                    </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1102,29 +1102,29 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>20000</v>
+        <v>24621</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>286586</v>
+        <v>-820854</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>110094</t>
+          <t>111383</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1000543</t>
+          <t>1000751</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201113</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>觀音新坡                                    </t>
+          <t>小港宏平                                    </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1143,29 +1143,29 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>25221</v>
+        <v>42128</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>311807</v>
+        <v>-778726</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>110094</t>
+          <t>111383</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1000617</t>
+          <t>1000861</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201113</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中央大學校內                                  </t>
+          <t>八德介壽                                    </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1184,29 +1184,29 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>22000</v>
+        <v>10463</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>333807</v>
+        <v>-768263</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>110094</t>
+          <t>111359</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1000646</t>
+          <t>1000009</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201113</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>平鎮莎奇拉雅                                  </t>
+          <t>三峽中山                                    </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1225,29 +1225,29 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>12000</v>
+        <v>5637</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>345807</v>
+        <v>-762626</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>110094</t>
+          <t>111359</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1000658</t>
+          <t>1000610</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201113</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>比佛利                                     </t>
+          <t>太平勤益	                                   </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1266,29 +1266,29 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>10000</v>
+        <v>13325</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>355807</v>
+        <v>-749301</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>110094</t>
+          <t>111359</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1000703</t>
+          <t>1000907</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201113</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1298,38 +1298,38 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>其他                                      </t>
+          <t>大里益民                                    </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>光泉自付運費                        </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3500</v>
+        <v>7759</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>359307</v>
+        <v>-741542</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>110132</t>
+          <t>111359</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>1000639</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201113</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1339,38 +1339,38 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>大魯閣開發股份有限公司高雄分公司                        </t>
+          <t>彰化金馬                                    </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>沖9月大魯閣                        </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>504400</v>
+        <v>6600</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>863707</v>
+        <v>-734942</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>110370</t>
+          <t>111361</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>5999930</t>
+          <t>1000379</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201113</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>其他                                      </t>
+          <t>大里永隆                                    </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1389,29 +1389,29 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>900</v>
+        <v>33607</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>864607</v>
+        <v>-701335</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>110083</t>
+          <t>111359</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>1000103</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201113</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1421,31 +1421,1958 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>大里美群                                    </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>支付10/15外務停車費                  </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>29650</v>
       </c>
       <c r="F28" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>864587</v>
+        <v>-671685</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>110107</t>
+          <t>111359</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000451</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>彰化實踐                                    </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>21000</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-650685</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>111361</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>1000239</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>台中水景	                                   </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>14847</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-635838</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>111359</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1000891</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>太平旱西	                                   </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>17714</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-618124</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>111359</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1000957</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大里塗城                                    </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>27576</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-590548</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>111359</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1000734</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>彰化秀傳                                    </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>24000</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-566548</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>111361</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1000667</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>其他                                      </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>360</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-566188</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>111361</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>土庫新建	                                   </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>16082</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-550106</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>111361</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1000919</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>虎尾林森	                                   </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>10036</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-540070</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>111361</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1000964</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>彰化牛埔                                    </t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>14300</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-525770</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>111361</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1000900</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>彰化彰德                                    </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>17600</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-508170</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>111361</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1000498</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>台中師苑	                                   </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>15000</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-493170</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>111366</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1000888</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>台中高工                                    </t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>12100</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-481070</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>111366</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1000167</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>神岡中山                                    </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>7000</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-474070</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>111358</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1000311</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大村大葉                                    </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>15150</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-458920</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>111358</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1000390</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>埔心中正                                    </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>8590</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-450330</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>111358</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1000766</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>二林彰基                                    </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>15681</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-434649</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>111358</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>1000424</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>北斗文苑	                                   </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>19346</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-415303</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>111358</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>1000838</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>田中中正                                    </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>13190</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-402113</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>111358</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>1000461</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>埤頭彰水                                    </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>8120</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-393993</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>111358</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1000522</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大甲三民                                    </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>31000</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-362993</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>111358</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1000669</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大甲育英                                    </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>3614</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-359379</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>111358</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1000168</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>大甲經國	                                   </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>9703</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-349676</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>111358</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1000858</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>外埔甲后                                    </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>23428</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-326248</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>111358</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1000272</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>沙鹿四平	                                   </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>26000</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-300248</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>111358</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1000837</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>金山中山                                    </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>6048</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-294200</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>111353</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1000276</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汐止康寧                                    </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>7100</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-287100</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>111353</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>1000632</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>宜蘭南屏                                    </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>6583</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-280517</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>111353</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1000755</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>宜蘭女中                                    </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-262517</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>111353</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1000447</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南港胡適                                    </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>39526</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-222991</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>111353</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1000619</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>宜蘭東港                                    </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>23410</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-199581</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>111353</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1000665</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>礁溪中山                                    </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>16119</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-183462</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>111353</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1000685</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>台中嶺東                                    </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>8007</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-175455</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>111355</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>1000154</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>台中忠勇店                                   </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>8725</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-166730</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>111355</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>1000728</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>台中大進	                                   </t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>8858</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-157872</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>111355</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>1000774</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>台中新民                                    </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>10810</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-147062</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>111355</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1000660</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>苗栗至公                                    </t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>6800</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-140262</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>111357</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>1000308</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>公館五穀                                    </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>24400</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-115862</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>111357</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>1000071</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>宜蘭中山                                    </t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>12500</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-103362</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>111353</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>1000696</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>台中海德堡                                   </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>12545</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-90817</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>111355</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>1000037</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>台中晨津	                                   </t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>4614</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-86203</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>111355</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>1000933</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>苗栗府前                                    </t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>17300</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-68903</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>111357</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>1000745</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>苑裡新興                                    </t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>22715</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-46188</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>111357</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>1000811</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>大甲日南	                                   </t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>7216</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-38972</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>111357</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>1000948</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>台中文華	                                   </t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>11326</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-27646</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>111357</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>1000921</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>台中逢大                                    </t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>38110</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>10464</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>111357</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>1000690</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>大雅中山                                    </t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>5419</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>15883</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>111357</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>1000022</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>后里甲后                                    </t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>9325</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>25208</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>111358</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>1000228</t>
         </is>
       </c>
     </row>
